--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291995.311073391</v>
+        <v>2286273.699105504</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>4.669905662784863</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>114.6064846449696</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>34.45403149117925</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>73.31370764131945</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>12.03808755530225</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>107.823220172264</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>91.28928585505052</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>368.5238654285699</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>268.6413070582232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1429,7 +1429,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.303713374191</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>58.40943379163121</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>59.90320919298897</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.20584125154376</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>44.80857447679223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>235.9955072668616</v>
+        <v>227.4555948839064</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>12.38867521109711</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.0927541397966</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>175.5414707707641</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.862199422181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>143.9764333632479</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.13042801593172</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>207.8637492714481</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>231.1949338508313</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>113.510364625082</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.721608616769</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>1954.952953346655</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.952953346655</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.952953346655</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.910013048764</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="C4" t="n">
-        <v>663.910013048764</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="D4" t="n">
-        <v>663.910013048764</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
         <v>190.2718927217162</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.910013048764</v>
+        <v>654.0747340636873</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762915</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762915</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2684.989406618927</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2684.989406618927</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2466.35473959099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2466.35473959099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2135.291852247419</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.523196977305</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1409.057438716225</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.918106740413</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162495</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162495</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>404.9282174162495</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>404.9282174162495</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>404.9282174162495</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>404.9282174162495</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>404.9282174162495</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162495</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.941371236149</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1229.941371236149</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.941371236149</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>844.1531186379048</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473041</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.080703211961</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236149</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>325.2978374347314</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L11" t="n">
-        <v>1650.184003770974</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M11" t="n">
-        <v>2628.734306600803</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3175.513123659585</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3678.485594538922</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5080,7 +5080,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5120,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>949.3913047785749</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C13" t="n">
-        <v>801.6097761177758</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>154.5604625207492</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>154.5604625207492</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>154.5604625207492</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608815</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.039769608815</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.039769608815</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.039769608815</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5281,22 +5281,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>806.161341878638</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1670.680157531993</v>
+        <v>1085.926319971173</v>
       </c>
       <c r="M14" t="n">
-        <v>2649.230460361821</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>492.7083461157126</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>156.0693265625247</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024461</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.1389409875</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894825</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.3568109459524</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,22 +5518,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3831.983903964021</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.7441371531723</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C19" t="n">
-        <v>539.8079542252655</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>389.6913148129298</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1407.79932291839</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>1118.382152881429</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X19" t="n">
-        <v>890.3926019834121</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y19" t="n">
-        <v>890.3926019834121</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5822,31 +5822,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1726.590339959343</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1437.173169922382</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="23">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3224.586145188258</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>3224.586145188258</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>3212.072331843715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>3064.159238261322</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4688.221265177249</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4399.118398302892</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>4144.433910097006</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>3855.016740060045</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>3627.027189162028</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3406.234610018498</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,13 +6232,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>582.3166934139181</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3805104860112</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>214.8466446906132</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1689.198391922066</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1467.431776491592</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>1467.431776491592</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V28" t="n">
-        <v>1212.747288285705</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>1212.747288285705</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X28" t="n">
-        <v>984.7577373876879</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y28" t="n">
-        <v>763.9651582441578</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>909.2731541783409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>909.2731541783409</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.7153769842187</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3236.322113103654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>3067.385930175747</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989247</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>4410.854366218289</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>4156.169878012402</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3866.752707975442</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3638.763157077424</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3417.970577933894</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3082.932479700092</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3585.904950579429</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4299.260038026375</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,19 +7016,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>826.5323180934831</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1939.040003462349</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1747.354119289175</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1525.587503858701</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1525.587503858701</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1525.587503858701</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1236.17033382174</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1008.180782923723</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1008.180782923723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7204,16 +7204,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>826.5323180934831</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.380083002231</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1746.380083002231</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1456.96291296527</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>1228.973362067253</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>1008.180782923723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,73 +7390,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7490,13 +7490,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,7 +7520,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7529,7 +7529,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3497.451174280397</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>3328.51499135249</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T43" t="n">
-        <v>4274.768765573601</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U43" t="n">
-        <v>3985.665898699244</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V43" t="n">
-        <v>3730.981410493358</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W43" t="n">
-        <v>3497.451174280397</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X43" t="n">
-        <v>3497.451174280397</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y43" t="n">
-        <v>3497.451174280397</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L44" t="n">
         <v>1482.778354750621</v>
@@ -7660,16 +7660,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7760,10 +7760,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
         <v>1554.419908487875</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,25 +7830,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y46" t="n">
         <v>277.2094992786341</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>123.471956347048</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>189.7998007892643</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>16.8005733590889</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,16 +9175,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>34.13957882094093</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>29.61882225792147</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>173.2204606877393</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9431077244368</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>86.34558112268957</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>84.8518057213318</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23706,7 +23706,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.0409798470841</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>207.3290688470358</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>16.14213605696636</v>
+        <v>24.68204843992157</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>136.2267978071152</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>27.32829388313469</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>14.22755456067785</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.72245392991383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>142.2354048423649</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>71.80172465411562</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>78.34808893416482</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>55.32806448575965</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>105.0742887270128</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834844.3571857273</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="E2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="F2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="H2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.590986126</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>575768.5909861255</v>
       </c>
-      <c r="K2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="M2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.5909861254</v>
-      </c>
       <c r="P2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861255</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924297</v>
-      </c>
-      <c r="C4" t="n">
-        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26432,10 +26432,10 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
@@ -26444,22 +26444,22 @@
         <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,10 +26484,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26496,10 +26496,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269778.2705187788</v>
+        <v>-269778.2705187789</v>
       </c>
       <c r="C6" t="n">
-        <v>320189.6086957656</v>
+        <v>320189.6086957655</v>
       </c>
       <c r="D6" t="n">
-        <v>320189.6086957656</v>
+        <v>320189.6086957653</v>
       </c>
       <c r="E6" t="n">
-        <v>-269611.9492580862</v>
+        <v>-270283.9041603445</v>
       </c>
       <c r="F6" t="n">
-        <v>457765.4647353201</v>
+        <v>457093.5098330624</v>
       </c>
       <c r="G6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330626</v>
       </c>
       <c r="H6" t="n">
-        <v>457765.4647353205</v>
+        <v>457093.5098330621</v>
       </c>
       <c r="I6" t="n">
-        <v>457765.4647353201</v>
+        <v>457093.5098330623</v>
       </c>
       <c r="J6" t="n">
-        <v>281342.2455427271</v>
+        <v>280670.2906404693</v>
       </c>
       <c r="K6" t="n">
-        <v>457765.4647353202</v>
+        <v>457093.5098330624</v>
       </c>
       <c r="L6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330626</v>
       </c>
       <c r="M6" t="n">
-        <v>328123.1498963757</v>
+        <v>327451.1949941173</v>
       </c>
       <c r="N6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330621</v>
       </c>
       <c r="O6" t="n">
-        <v>457765.4647353199</v>
+        <v>457093.5098330624</v>
       </c>
       <c r="P6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.509833062</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>211.7784146948729</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>213.1457738251653</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>112.2111604889786</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>145.2709457107753</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>42.44031501950946</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>117.2118852858203</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>134.4203695339866</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>38.35218031314156</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>17.88169127836778</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>522.2339425664198</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9910873446648</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>472.3906877514211</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>432.9015650403126</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>568.5399380881482</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>424.0147654914588</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286273.699105504</v>
+        <v>2289679.190229954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.882709509</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>4.669905662784863</v>
+        <v>130.4588318996849</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>28.11374845278275</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.31370764131945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>368.2184547640285</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>26.78026256753498</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>91.28928585505052</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.255748559886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.7835007017901</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>58.40943379163121</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>98.80399951402478</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>68.74868616823429</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>59.90320919298912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.20584125154376</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.64611395449666</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,7 +2177,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
         <v>18.81721868247745</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>227.4555948839064</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2532,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>118.0927541397966</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>189.1779312239354</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>7.601081015447828</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.510364625082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
         <v>1749.341643278937</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2692.432014591167</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U2" t="n">
-        <v>2438.670229229258</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.0747340636873</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="C4" t="n">
-        <v>654.0747340636873</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="D4" t="n">
-        <v>654.0747340636873</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="Y4" t="n">
-        <v>654.0747340636873</v>
+        <v>699.7312584965529</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>80.99375209060179</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060179</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060179</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>80.99375209060179</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>606.50066520647</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1682.725100522032</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.5901955154781</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>452.5901955154781</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>302.4735561031423</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>154.5604625207492</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>154.5604625207492</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>154.5604625207492</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1856.541446393568</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1567.438579519211</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1312.754091313324</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154781</v>
+        <v>1023.336921276364</v>
       </c>
     </row>
     <row r="14">
@@ -5263,16 +5263,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,16 +5281,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.926319971173</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2064.476622801002</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O14" t="n">
         <v>3547.201365906985</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>432.2000540015823</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1886.900348763053</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1695.214464589879</v>
       </c>
       <c r="T16" t="n">
-        <v>1895.835173990573</v>
+        <v>1473.447849159405</v>
       </c>
       <c r="U16" t="n">
-        <v>1606.732307116217</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="V16" t="n">
-        <v>1352.04781891033</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W16" t="n">
-        <v>1062.630648873369</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X16" t="n">
-        <v>834.6410979753522</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y16" t="n">
-        <v>613.848518831822</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5509,34 +5509,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2782.232616025902</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3329.011433084685</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3831.983903964021</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.9417306852379</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.801936857737</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1675.116052684564</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.34943725409</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1453.34943725409</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1198.664949048203</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570251</v>
+        <v>909.2477790112422</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590077</v>
+        <v>909.2477790112422</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154776</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5752,46 +5752,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.590339959343</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1437.173169922382</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.183619024365</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.3910398808349</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -6001,25 +6001,25 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,58 +6044,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6180,10 +6180,10 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
         <v>725.9916293201816</v>
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,10 +6214,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>362.7597382730063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>214.8466446906132</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>583.5523174165364</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>362.7597382730063</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6472,19 +6472,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468568</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,22 +6709,22 @@
         <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E37" t="n">
         <v>95.56103444839442</v>
@@ -7098,49 +7098,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927063</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892255</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952193</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104708</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.576850674234</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799877</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1254.385164381761</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>964.9679943448</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467731</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,22 +7359,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
         <v>277.2094992786341</v>
@@ -7390,46 +7390,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>721.6132334414665</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1172.647446689875</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7490,10 +7490,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1948.66560649314</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1726.898991062666</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1437.79612418831</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1183.111635982423</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807097</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750057</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7760,10 +7760,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
         <v>1554.419908487875</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258585</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783413</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413808</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X46" t="n">
-        <v>391.8664332433634</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>16.8005733590889</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>142.1686942807567</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>34.13957882094093</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>29.61882225792147</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570114</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476832</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>317.5146261106126</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>104.3976710547477</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400226</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>86.34558112268957</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.7449497621444</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>20.18346650181304</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>159.6457400831801</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.0409798470841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0.2860387155506743</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>24.68204843992157</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>27.32829388313469</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>62.95971209989258</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>182.1679443159941</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="14">
@@ -26319,19 +26319,19 @@
         <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
         <v>575768.5909861256</v>
       </c>
       <c r="F2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="H2" t="n">
-        <v>575768.5909861256</v>
       </c>
       <c r="I2" t="n">
         <v>575768.5909861259</v>
@@ -26340,13 +26340,13 @@
         <v>575768.5909861258</v>
       </c>
       <c r="K2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="L2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="L2" t="n">
-        <v>575768.590986126</v>
-      </c>
       <c r="M2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="N2" t="n">
         <v>575768.5909861255</v>
@@ -26355,7 +26355,7 @@
         <v>575768.5909861259</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.590986126</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.314838945</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709187</v>
@@ -26432,34 +26432,34 @@
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269778.2705187789</v>
+        <v>-269778.2705187791</v>
       </c>
       <c r="C6" t="n">
         <v>320189.6086957655</v>
       </c>
       <c r="D6" t="n">
-        <v>320189.6086957653</v>
+        <v>320189.6086957656</v>
       </c>
       <c r="E6" t="n">
-        <v>-270283.9041603445</v>
+        <v>-269679.1447483125</v>
       </c>
       <c r="F6" t="n">
-        <v>457093.5098330624</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="G6" t="n">
-        <v>457093.5098330626</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="H6" t="n">
-        <v>457093.5098330621</v>
+        <v>457698.2692450944</v>
       </c>
       <c r="I6" t="n">
-        <v>457093.5098330623</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="J6" t="n">
-        <v>280670.2906404693</v>
+        <v>281275.0500525014</v>
       </c>
       <c r="K6" t="n">
-        <v>457093.5098330624</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="L6" t="n">
-        <v>457093.5098330626</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="M6" t="n">
-        <v>327451.1949941173</v>
+        <v>328055.9544061495</v>
       </c>
       <c r="N6" t="n">
-        <v>457093.5098330621</v>
+        <v>457698.2692450942</v>
       </c>
       <c r="O6" t="n">
-        <v>457093.5098330624</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="P6" t="n">
-        <v>457093.509833062</v>
+        <v>457698.2692450947</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,20 +26980,20 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>211.7784146948729</v>
+        <v>85.9894884579729</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>118.5514435273751</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>145.2709457107753</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.512645914440554</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>140.5295396915159</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>134.4203695339866</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858303</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.04847948014722</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-4.058624393526496e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3.629215446684005e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35649,19 +35649,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>472.3906877514211</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>650.2216951689758</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>432.9015650403126</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605943</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>568.5399380881482</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493436</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400155</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702018</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660132</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>441.5889576101482</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282419</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
